--- a/biology/Zoologie/Callicore_texa/Callicore_texa.xlsx
+++ b/biology/Zoologie/Callicore_texa/Callicore_texa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callicore texa est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Biblidinae et du genre Callicore.
 </t>
@@ -511,13 +523,85 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Callicore texa a été décrit par William Chapman Hewitson en 1855 sous le nom initial de Catagramma texa[1].
-Noms vernaculaires
- Callicore texa maimuna se nomme Texa Numberwing en anglais et  Callicore texa titania Yellow-rimmed Eighty-eight[2],[3].
-Sous-espèces
- Callicore texa texa présent en Colombie et au Venezuela.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callicore texa a été décrit par William Chapman Hewitson en 1855 sous le nom initial de Catagramma texa.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Callicore_texa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_texa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Callicore texa maimuna se nomme Texa Numberwing en anglais et  Callicore texa titania Yellow-rimmed Eighty-eight,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Callicore_texa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_texa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Callicore texa texa présent en Colombie et au Venezuela.
  Callicore texa aretas (Hewitson, 1857); présent en Colombie et au Venezuela.
  Callicore texa bari (Oberthür, 1916); présent en Guyane.
  Callicore texa boyeri Attal, 1999; présent en Équateur
@@ -530,73 +614,7 @@
  Callicore texa skinneri Neild, 1996; présent au Venezuela.
  Callicore texa strympli (Fassl, 1922); présent au Brésil.
  Callicore texa tacana Maza &amp; Maza, 1983; présent au Mexique
- Callicore texa titania (Salvin, 1869)présent au Guatemala et au Honduras[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Callicore_texa</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Callicore_texa</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callicore texa est un papillon au dessus des ailes antérieures avec une flaque de couleur rouge à la base et le reste de l'aile marron à noir et aux ailes postérieures bleu violet très largement bordées de marron à noir.
-Le revers des ailes antérieures est semblable au dessus alors que les ailes postérieures sont de couleur marron à noir ornementées de lignes beige et d'une ligne submarginale bleu métallisé avec deux gros ocelles doublement pupillés de bleu.
-Chenille
-La chenille est verte avec sur la tête deux grandes cornes de couleur rouge[3].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Callicore_texa</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Callicore_texa</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Serjania[1].
-</t>
+ Callicore texa titania (Salvin, 1869)présent au Guatemala et au Honduras.</t>
         </is>
       </c>
     </row>
@@ -621,18 +639,198 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callicore texa est un papillon au dessus des ailes antérieures avec une flaque de couleur rouge à la base et le reste de l'aile marron à noir et aux ailes postérieures bleu violet très largement bordées de marron à noir.
+Le revers des ailes antérieures est semblable au dessus alors que les ailes postérieures sont de couleur marron à noir ornementées de lignes beige et d'une ligne submarginale bleu métallisé avec deux gros ocelles doublement pupillés de bleu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Callicore_texa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_texa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est verte avec sur la tête deux grandes cornes de couleur rouge.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Callicore_texa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_texa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Serjania.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Callicore_texa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_texa</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Callicore texa est présent au Mexique, au Guatemala, au Honduras, en Colombie, au Venezuela, à Trinité-et-Tobago, en Équateur, en Bolivie, au Pérou, au Brésil et en Guyane[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Callicore texa est présent au Mexique, au Guatemala, au Honduras, en Colombie, au Venezuela, à Trinité-et-Tobago, en Équateur, en Bolivie, au Pérou, au Brésil et en Guyane.
 Sur les autres projets Wikimedia :
 Callicore texa, sur Wikimedia CommonsCallicore texa, sur Wikispecies
-Biotope
-Callicore texa réside dans la forêt tropicale humide[2].
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Callicore_texa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_texa</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callicore texa réside dans la forêt tropicale humide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Callicore_texa</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_texa</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
